--- a/projects/m0_office_reduced_optim.xlsx
+++ b/projects/m0_office_reduced_optim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$66</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="907">
   <si>
     <t>type</t>
   </si>
@@ -1996,9 +1996,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>../weather/*</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2248,9 +2245,6 @@
     <t>Envelope Aspect Ratio</t>
   </si>
   <si>
-    <t>USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
-  </si>
-  <si>
     <t>cofee</t>
   </si>
   <si>
@@ -2708,6 +2702,66 @@
   </si>
   <si>
     <t>NationalGrid office reduced Optim</t>
+  </si>
+  <si>
+    <t>../weather_183871/*</t>
+  </si>
+  <si>
+    <t>calibration_data</t>
+  </si>
+  <si>
+    <t>../lib_m0/183871</t>
+  </si>
+  <si>
+    <t>Ngrid Add Monthly Utility Data</t>
+  </si>
+  <si>
+    <t>NGridAddMonthlyUtilityData</t>
+  </si>
+  <si>
+    <t>Path to electric JSON</t>
+  </si>
+  <si>
+    <t>electric_json</t>
+  </si>
+  <si>
+    <t>Path to gas JSON</t>
+  </si>
+  <si>
+    <t>gas_json</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>2013-01-10</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>Calibration Reports</t>
+  </si>
+  <si>
+    <t>CalibrationReports</t>
+  </si>
+  <si>
+    <t>Lawrence109_2013CST.epw</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric_billed_usage.json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas_billed_usage.json</t>
   </si>
 </sst>
 </file>
@@ -4685,7 +4739,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4788,6 +4842,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6928,8 +6983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6965,7 +7020,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>437</v>
@@ -6987,7 +7042,7 @@
         <v>469</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>614</v>
@@ -7069,7 +7124,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7080,10 +7135,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7091,10 +7146,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7287,7 +7342,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7300,7 +7355,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>651</v>
+        <v>887</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7314,7 +7369,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7331,7 +7386,7 @@
         <v>649</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7342,7 +7397,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7354,14 +7409,22 @@
         <v>650</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
+      <c r="A44" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>888</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>889</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
   </sheetData>
@@ -7388,11 +7451,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z131"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7447,14 +7510,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7490,7 +7553,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7555,13 +7618,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>656</v>
+        <v>890</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>657</v>
+        <v>891</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>657</v>
+        <v>891</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>68</v>
@@ -7569,875 +7632,858 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>104</v>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>895</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>618</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>787</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>718</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+        <v>906</v>
+      </c>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>898</v>
+      </c>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>723</v>
+        <v>899</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="F8" s="30"/>
+        <v>900</v>
+      </c>
       <c r="G8" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>886</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N9" s="31">
-        <f>(K9+L9)/6</f>
-        <v>0.23333333333333331</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="31" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="I10" s="31" t="b">
+      <c r="I8" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>815</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="F11" s="30"/>
+      <c r="B9" s="37" t="s">
+        <v>902</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>663</v>
+      </c>
       <c r="G11" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="b">
+      <c r="I11" s="30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>788</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="B13" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>718</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="D13" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="2"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>880</v>
+        <v>722</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>885</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="F14" s="30"/>
       <c r="G14" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.2</v>
+        <v>618</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>860</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="N14" s="31">
-        <f>(K14+L14)/6</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="31" t="s">
-        <v>887</v>
-      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="F15" s="30"/>
+        <v>720</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>884</v>
+      </c>
       <c r="G15" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="I15" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="31"/>
+        <v>619</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N15" s="31">
+        <f>(K15+L15)/6</f>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="31" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>816</v>
+        <v>721</v>
       </c>
       <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I16" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="b">
+      <c r="I17" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>863</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="B18" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>718</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="D18" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="2"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>881</v>
+        <v>722</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>884</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="F19" s="30"/>
       <c r="G19" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.1</v>
+        <v>618</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>865</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N19" s="31">
-        <f>(K19+L19)/6</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="31" t="s">
-        <v>887</v>
-      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="F20" s="30"/>
+        <v>720</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>883</v>
+      </c>
       <c r="G20" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="I20" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="31"/>
+        <v>619</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N20" s="31">
+        <f>(K20+L20)/6</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="31" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>816</v>
+        <v>721</v>
       </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I21" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="b">
+      <c r="I22" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>864</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="D22" s="37" t="s">
+      <c r="B23" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>718</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="D23" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="E23" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="2"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>882</v>
+        <v>722</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>883</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="F24" s="30"/>
       <c r="G24" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.1</v>
+        <v>618</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>866</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N24" s="31">
-        <f>(K24+L24)/6</f>
-        <v>5.8333333333333327E-2</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="31" t="s">
-        <v>887</v>
-      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="F25" s="30"/>
+        <v>720</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>882</v>
+      </c>
       <c r="G25" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="I25" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="31"/>
+        <v>619</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N25" s="31">
+        <f>(K25+L25)/6</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="31" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>815</v>
+        <v>863</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>816</v>
+        <v>721</v>
       </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I26" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="b">
+      <c r="I27" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>727</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>725</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>726</v>
-      </c>
-      <c r="E27" s="37" t="s">
+      <c r="B28" s="37" t="s">
+        <v>862</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="E28" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>629</v>
-      </c>
-      <c r="I28" s="31">
-        <v>999998</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="2"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>729</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="F29" s="30"/>
       <c r="G29" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="I29" s="4">
-        <v>10</v>
+        <v>618</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>867</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>732</v>
+        <v>880</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>731</v>
+        <v>720</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>881</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>660</v>
-      </c>
       <c r="I30" s="4">
-        <v>10</v>
-      </c>
-      <c r="J30" s="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N30" s="31">
+        <f>(K30+L30)/6</f>
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="31" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>734</v>
+        <v>864</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>733</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="F31" s="30"/>
       <c r="G31" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I31" s="4">
-        <v>2</v>
+        <v>620</v>
+      </c>
+      <c r="I31" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="b">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>846</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>847</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>848</v>
-      </c>
-      <c r="E32" s="37" t="s">
+      <c r="B33" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>725</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>768</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I33" s="4">
-        <v>8</v>
-      </c>
-      <c r="J33" s="31"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>771</v>
+      <c r="D34" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>727</v>
       </c>
       <c r="G34" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="I34" s="31">
+        <v>183871</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="G35" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="I34" s="4">
-        <v>17</v>
-      </c>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>747</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>746</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>737</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+      <c r="H35" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="I35" s="4">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="I36" s="31">
+      <c r="H36" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="I36" s="4">
+        <v>10</v>
+      </c>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>755</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>738</v>
-      </c>
-      <c r="E37" s="37" t="s">
+      <c r="B38" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>845</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>846</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>750</v>
-      </c>
-      <c r="G38" s="31" t="s">
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B39" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="G39" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="I38" s="31">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>752</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>739</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
+      <c r="I39" s="4">
+        <v>8</v>
+      </c>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>762</v>
+      <c r="D40" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>769</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="4">
+        <v>17</v>
+      </c>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47" t="b">
+      <c r="B41" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>744</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>735</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B42" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I42" s="31">
         <v>1</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>813</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>811</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>812</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="37"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-    </row>
-    <row r="42" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>814</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>809</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E43" s="37" t="s">
         <v>68</v>
@@ -8450,10 +8496,10 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>619</v>
@@ -8475,13 +8521,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>849</v>
+        <v>752</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E45" s="37" t="s">
         <v>68</v>
@@ -8489,107 +8535,98 @@
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
     </row>
-    <row r="46" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="b">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B46" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I46" s="31">
         <v>1</v>
       </c>
-      <c r="B46" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="37" t="s">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="E47" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="I47" s="31">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47" t="b">
+      <c r="F47" s="37"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+    </row>
+    <row r="48" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="47" t="s">
-        <v>773</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>757</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>774</v>
-      </c>
-      <c r="E48" s="47" t="s">
+      <c r="B48" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="E48" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>852</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>851</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I49" s="31">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="2"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>762</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>738</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>857</v>
+        <v>764</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>856</v>
+        <v>763</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>619</v>
@@ -8606,128 +8643,126 @@
       <c r="Q50" s="39"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>859</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="G51" s="31" t="s">
+    <row r="51" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>765</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>847</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="I51" s="31">
+      <c r="H53" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="I53" s="31">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>861</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="G52" s="31" t="s">
+      <c r="B54" s="47" t="s">
+        <v>771</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>755</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>772</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="37"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B55" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="G55" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I55" s="31">
         <v>1</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>775</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>758</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>742</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="I54" s="31">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>778</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>743</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>779</v>
+        <v>855</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>780</v>
+        <v>854</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>619</v>
@@ -8744,34 +8779,40 @@
       <c r="Q56" s="39"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="b">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B57" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I57" s="31">
         <v>1</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>783</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>760</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>744</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>782</v>
+        <v>859</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>781</v>
+        <v>858</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>619</v>
@@ -8793,13 +8834,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E59" s="37" t="s">
         <v>68</v>
@@ -8812,10 +8853,10 @@
         <v>21</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>619</v>
@@ -8837,13 +8878,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>804</v>
+        <v>741</v>
       </c>
       <c r="E61" s="37" t="s">
         <v>68</v>
@@ -8856,10 +8897,10 @@
         <v>21</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>808</v>
+        <v>777</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>619</v>
@@ -8881,13 +8922,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>801</v>
+        <v>758</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>800</v>
+        <v>742</v>
       </c>
       <c r="E63" s="37" t="s">
         <v>68</v>
@@ -8900,10 +8941,10 @@
         <v>21</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>619</v>
@@ -8925,13 +8966,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
       <c r="E65" s="37" t="s">
         <v>68</v>
@@ -8944,10 +8985,10 @@
         <v>21</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>619</v>
@@ -8964,62 +9005,62 @@
       <c r="Q66" s="39"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="G67" s="31" t="s">
+    <row r="67" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>804</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>802</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B68" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="G68" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="I67" s="31">
+      <c r="I68" s="31">
         <v>1</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="2"/>
-    </row>
-    <row r="68" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>837</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>830</v>
+        <v>797</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>838</v>
+        <v>799</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="E69" s="37" t="s">
         <v>68</v>
@@ -9027,37 +9068,43 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="37" t="b">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B70" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I70" s="31">
         <v>1</v>
       </c>
-      <c r="B70" s="37" t="s">
-        <v>831</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>839</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>823</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>840</v>
+        <v>792</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>824</v>
+        <v>791</v>
       </c>
       <c r="E71" s="37" t="s">
         <v>68</v>
@@ -9065,56 +9112,68 @@
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
     </row>
-    <row r="72" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="37" t="b">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B72" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I72" s="31">
         <v>1</v>
       </c>
-      <c r="B72" s="37" t="s">
-        <v>833</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>841</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>825</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-    </row>
-    <row r="73" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="b">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B73" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I73" s="31">
         <v>1</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>834</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>842</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>826</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="2"/>
     </row>
     <row r="74" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B74" s="37" t="s">
+        <v>827</v>
+      </c>
+      <c r="C74" s="37" t="s">
         <v>835</v>
       </c>
-      <c r="C74" s="37" t="s">
-        <v>843</v>
-      </c>
       <c r="D74" s="37" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E74" s="37" t="s">
         <v>68</v>
@@ -9127,13 +9186,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="C75" s="37" t="s">
         <v>836</v>
       </c>
-      <c r="C75" s="37" t="s">
-        <v>844</v>
-      </c>
       <c r="D75" s="37" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E75" s="37" t="s">
         <v>68</v>
@@ -9146,13 +9205,13 @@
         <v>1</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E76" s="37" t="s">
         <v>68</v>
@@ -9165,93 +9224,183 @@
         <v>1</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-    </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-    </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-    </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-    </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+    </row>
+    <row r="79" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>832</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>840</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+    </row>
+    <row r="80" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>833</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>841</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+    </row>
+    <row r="81" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>834</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>842</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+    </row>
+    <row r="82" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>817</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+    </row>
+    <row r="83" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I85" s="31"/>
       <c r="J85" s="31"/>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I86" s="31"/>
       <c r="J86" s="31"/>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I87" s="31"/>
       <c r="J87" s="31"/>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I88" s="31"/>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I89" s="31"/>
       <c r="J89" s="31"/>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I91" s="31"/>
       <c r="J91" s="31"/>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I92" s="31"/>
       <c r="J92" s="31"/>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I93" s="31"/>
       <c r="J93" s="31"/>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I94" s="31"/>
       <c r="J94" s="31"/>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I95" s="31"/>
       <c r="J95" s="31"/>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I96" s="31"/>
       <c r="J96" s="31"/>
     </row>
@@ -9395,8 +9544,32 @@
       <c r="I131" s="31"/>
       <c r="J131" s="31"/>
     </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I132" s="31"/>
+      <c r="J132" s="31"/>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I133" s="31"/>
+      <c r="J133" s="31"/>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I134" s="31"/>
+      <c r="J134" s="31"/>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AA60"/>
+  <autoFilter ref="A2:AA66"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
@@ -9414,9 +9587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9456,7 +9629,7 @@
         <v>459</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>635</v>
@@ -9495,7 +9668,7 @@
         <v>627</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>640</v>
@@ -9534,7 +9707,7 @@
         <v>642</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>636</v>
@@ -9567,7 +9740,7 @@
         <v>643</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>637</v>
@@ -9600,7 +9773,7 @@
         <v>644</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>639</v>
@@ -9633,7 +9806,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>638</v>
@@ -9663,12 +9836,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>468</v>
@@ -9692,12 +9865,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>468</v>
@@ -9721,12 +9894,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>468</v>
@@ -9750,12 +9923,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>468</v>
@@ -9779,12 +9952,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>468</v>
@@ -9808,12 +9981,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>468</v>
@@ -9837,12 +10010,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>468</v>
@@ -9866,12 +10039,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>468</v>
@@ -9895,12 +10068,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>468</v>
@@ -9924,12 +10097,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>468</v>
@@ -9953,12 +10126,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>468</v>
@@ -9982,12 +10155,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>468</v>
@@ -10011,12 +10184,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>468</v>
@@ -10040,12 +10213,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>468</v>
@@ -10069,15 +10242,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>64</v>
@@ -10098,15 +10271,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>64</v>
@@ -10127,15 +10300,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>64</v>
@@ -10156,17 +10329,17 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>64</v>
@@ -10187,23 +10360,23 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F26" s="40" t="s">
         <v>64</v>
       </c>
       <c r="G26" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="40" t="b">
         <v>1</v>
@@ -10218,23 +10391,23 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F27" s="40" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="40" t="b">
         <v>1</v>
@@ -10249,132 +10422,124 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="E28" s="40" t="s">
         <v>671</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>672</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="40">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" s="40"/>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F29" s="40" t="s">
         <v>64</v>
       </c>
       <c r="G29" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="40">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" s="40"/>
       <c r="K29" s="40"/>
       <c r="L29" s="40"/>
       <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="40">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" s="40"/>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>64</v>
       </c>
       <c r="G31" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="40">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" s="40"/>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
